--- a/directed_trips_regions_bimonthly_HCR_plus1.xlsx
+++ b/directed_trips_regions_bimonthly_HCR_plus1.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f>R2+1</f>
+        <f t="shared" ref="F2:F13" si="0">ROUND(R2+1, 0)</f>
         <v>20</v>
       </c>
       <c r="G2" s="1">
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="0">R3+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G3" s="1">
@@ -1615,8 +1615,8 @@
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f>ROUND(R14+1, 0)</f>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1702,8 +1702,8 @@
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" ref="F15:F78" si="1">ROUND(R15+1, 0)</f>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1789,8 +1789,8 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1876,8 +1876,8 @@
         <v>4</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1963,8 +1963,8 @@
         <v>4</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2050,8 +2050,8 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2137,8 +2137,8 @@
         <v>4</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2224,8 +2224,8 @@
         <v>4</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2311,8 +2311,8 @@
         <v>4</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2398,8 +2398,8 @@
         <v>4</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2485,8 +2485,8 @@
         <v>4</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2572,8 +2572,8 @@
         <v>4</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2659,8 +2659,8 @@
         <v>4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2746,8 +2746,8 @@
         <v>4</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2833,8 +2833,8 @@
         <v>4</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2920,8 +2920,8 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G30" s="1">
@@ -3094,7 +3094,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G31" s="1">
@@ -3181,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G32" s="1">
@@ -3268,7 +3268,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G33" s="1">
@@ -3355,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G34" s="1">
@@ -3442,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G35" s="1">
@@ -3529,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G36" s="1">
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G37" s="1">
@@ -3703,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G38" s="1">
@@ -3790,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="G39" s="1">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G40" s="1">
@@ -3964,8 +3964,8 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4051,8 +4051,8 @@
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4138,8 +4138,8 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4225,8 +4225,8 @@
         <v>4</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4312,8 +4312,8 @@
         <v>4</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4399,8 +4399,8 @@
         <v>4</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4486,8 +4486,8 @@
         <v>4</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4573,8 +4573,8 @@
         <v>4</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4660,8 +4660,8 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4747,8 +4747,8 @@
         <v>4</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4834,8 +4834,8 @@
         <v>4</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4921,8 +4921,8 @@
         <v>4</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -5008,8 +5008,8 @@
         <v>4</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5095,8 +5095,8 @@
         <v>4</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5182,8 +5182,8 @@
         <v>4</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -5269,8 +5269,8 @@
         <v>4</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
@@ -5356,8 +5356,8 @@
         <v>4</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G57" s="1">
         <v>100</v>
@@ -5443,8 +5443,8 @@
         <v>4</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -5530,8 +5530,8 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G59" s="1">
         <v>100</v>
@@ -5617,8 +5617,8 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G60" s="1">
         <v>100</v>
@@ -5704,8 +5704,8 @@
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -5791,8 +5791,8 @@
         <v>4</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G62" s="1">
         <v>100</v>
@@ -5878,8 +5878,8 @@
         <v>4</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G63" s="1">
         <v>100</v>
@@ -5965,8 +5965,8 @@
         <v>4</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="0"/>
-        <v>17.5</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="G64" s="1">
         <v>100</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G65" s="1">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G66" s="1">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F124" si="1">R67+1</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G67" s="1">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F79:F124" si="2">ROUND(R79+1, 0)</f>
         <v>101</v>
       </c>
       <c r="G79" s="1">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G80" s="1">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G81" s="1">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G82" s="1">
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G83" s="1">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G84" s="1">
@@ -7792,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G85" s="1">
@@ -7879,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G86" s="1">
@@ -7966,7 +7966,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G87" s="1">
@@ -8053,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G88" s="1">
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G89" s="1">
@@ -8227,7 +8227,7 @@
         <v>4</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G90" s="1">
@@ -8314,7 +8314,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G91" s="1">
@@ -8401,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G92" s="1">
@@ -8488,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G93" s="1">
@@ -8575,7 +8575,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G94" s="1">
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G95" s="1">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G96" s="1">
@@ -8836,7 +8836,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G97" s="1">
@@ -8923,7 +8923,7 @@
         <v>6</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G98" s="1">
@@ -9010,7 +9010,7 @@
         <v>6</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G99" s="1">
@@ -9097,7 +9097,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G100" s="1">
@@ -9184,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G101" s="1">
@@ -9271,7 +9271,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G102" s="1">
@@ -9358,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G103" s="1">
@@ -9445,7 +9445,7 @@
         <v>6</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G104" s="1">
@@ -9532,7 +9532,7 @@
         <v>6</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G105" s="1">
@@ -9619,7 +9619,7 @@
         <v>6</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G106" s="1">
@@ -9706,7 +9706,7 @@
         <v>6</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G107" s="1">
@@ -9793,7 +9793,7 @@
         <v>6</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G108" s="1">
@@ -9880,8 +9880,8 @@
         <v>4</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9967,8 +9967,8 @@
         <v>4</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -10054,8 +10054,8 @@
         <v>4</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10141,8 +10141,8 @@
         <v>4</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10228,8 +10228,8 @@
         <v>4</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10315,8 +10315,8 @@
         <v>4</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10402,8 +10402,8 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10489,8 +10489,8 @@
         <v>4</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10576,8 +10576,8 @@
         <v>4</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10663,8 +10663,8 @@
         <v>4</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10750,8 +10750,8 @@
         <v>4</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10837,8 +10837,8 @@
         <v>4</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10924,8 +10924,8 @@
         <v>4</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -11011,8 +11011,8 @@
         <v>4</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -11098,8 +11098,8 @@
         <v>4</v>
       </c>
       <c r="F123" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11185,8 +11185,8 @@
         <v>4</v>
       </c>
       <c r="F124" s="2">
-        <f t="shared" si="1"/>
-        <v>17.5</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>

--- a/directed_trips_regions_bimonthly_HCR_plus1.xlsx
+++ b/directed_trips_regions_bimonthly_HCR_plus1.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F2:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F13" si="0">ROUND(R2+1, 0)</f>
+        <f>ROUNDDOWN(R2+1, 0)</f>
         <v>20</v>
       </c>
       <c r="G2" s="1">
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F3:F66" si="0">ROUNDDOWN(R3+1, 0)</f>
         <v>20</v>
       </c>
       <c r="G3" s="1">
@@ -1615,8 +1615,8 @@
         <v>4</v>
       </c>
       <c r="F14" s="2">
-        <f>ROUND(R14+1, 0)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G14" s="1">
         <v>100</v>
@@ -1702,8 +1702,8 @@
         <v>4</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ref="F15:F78" si="1">ROUND(R15+1, 0)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G15" s="1">
         <v>100</v>
@@ -1789,8 +1789,8 @@
         <v>4</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G16" s="1">
         <v>100</v>
@@ -1876,8 +1876,8 @@
         <v>4</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G17" s="1">
         <v>100</v>
@@ -1963,8 +1963,8 @@
         <v>4</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>100</v>
@@ -2050,8 +2050,8 @@
         <v>4</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G19" s="1">
         <v>100</v>
@@ -2137,8 +2137,8 @@
         <v>4</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G20" s="1">
         <v>100</v>
@@ -2224,8 +2224,8 @@
         <v>4</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G21" s="1">
         <v>100</v>
@@ -2311,8 +2311,8 @@
         <v>4</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G22" s="1">
         <v>100</v>
@@ -2398,8 +2398,8 @@
         <v>4</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G23" s="1">
         <v>100</v>
@@ -2485,8 +2485,8 @@
         <v>4</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G24" s="1">
         <v>100</v>
@@ -2572,8 +2572,8 @@
         <v>4</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G25" s="1">
         <v>100</v>
@@ -2659,8 +2659,8 @@
         <v>4</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G26" s="1">
         <v>100</v>
@@ -2746,8 +2746,8 @@
         <v>4</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G27" s="1">
         <v>100</v>
@@ -2833,8 +2833,8 @@
         <v>4</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G28" s="1">
         <v>100</v>
@@ -2920,8 +2920,8 @@
         <v>4</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G29" s="1">
         <v>100</v>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G30" s="1">
@@ -3094,7 +3094,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G31" s="1">
@@ -3181,7 +3181,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G32" s="1">
@@ -3268,7 +3268,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G33" s="1">
@@ -3355,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G34" s="1">
@@ -3442,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G35" s="1">
@@ -3529,7 +3529,7 @@
         <v>5</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G36" s="1">
@@ -3616,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G37" s="1">
@@ -3703,7 +3703,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G38" s="1">
@@ -3790,7 +3790,7 @@
         <v>5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G39" s="1">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G40" s="1">
@@ -3964,8 +3964,8 @@
         <v>4</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G41" s="1">
         <v>100</v>
@@ -4051,8 +4051,8 @@
         <v>4</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G42" s="1">
         <v>100</v>
@@ -4138,8 +4138,8 @@
         <v>4</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G43" s="1">
         <v>100</v>
@@ -4225,8 +4225,8 @@
         <v>4</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G44" s="1">
         <v>100</v>
@@ -4312,8 +4312,8 @@
         <v>4</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G45" s="1">
         <v>100</v>
@@ -4399,8 +4399,8 @@
         <v>4</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G46" s="1">
         <v>100</v>
@@ -4486,8 +4486,8 @@
         <v>4</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G47" s="1">
         <v>100</v>
@@ -4573,8 +4573,8 @@
         <v>4</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G48" s="1">
         <v>100</v>
@@ -4660,8 +4660,8 @@
         <v>4</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G49" s="1">
         <v>100</v>
@@ -4747,8 +4747,8 @@
         <v>4</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G50" s="1">
         <v>100</v>
@@ -4834,8 +4834,8 @@
         <v>4</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G51" s="1">
         <v>100</v>
@@ -4921,8 +4921,8 @@
         <v>4</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G52" s="1">
         <v>100</v>
@@ -5008,8 +5008,8 @@
         <v>4</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G53" s="1">
         <v>100</v>
@@ -5095,8 +5095,8 @@
         <v>4</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G54" s="1">
         <v>100</v>
@@ -5182,8 +5182,8 @@
         <v>4</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G55" s="1">
         <v>100</v>
@@ -5269,8 +5269,8 @@
         <v>4</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G56" s="1">
         <v>100</v>
@@ -5356,8 +5356,8 @@
         <v>4</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G57" s="1">
         <v>100</v>
@@ -5443,8 +5443,8 @@
         <v>4</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G58" s="1">
         <v>100</v>
@@ -5530,8 +5530,8 @@
         <v>4</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G59" s="1">
         <v>100</v>
@@ -5617,8 +5617,8 @@
         <v>4</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G60" s="1">
         <v>100</v>
@@ -5704,8 +5704,8 @@
         <v>4</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G61" s="1">
         <v>100</v>
@@ -5791,8 +5791,8 @@
         <v>4</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G62" s="1">
         <v>100</v>
@@ -5878,8 +5878,8 @@
         <v>4</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G63" s="1">
         <v>100</v>
@@ -5965,8 +5965,8 @@
         <v>4</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G64" s="1">
         <v>100</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G65" s="1">
@@ -6139,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="G66" s="1">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F67:F124" si="1">ROUNDDOWN(R67+1, 0)</f>
         <v>101</v>
       </c>
       <c r="G67" s="1">
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" ref="F79:F124" si="2">ROUND(R79+1, 0)</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G79" s="1">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G80" s="1">
@@ -7444,7 +7444,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G81" s="1">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G82" s="1">
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G83" s="1">
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G84" s="1">
@@ -7792,7 +7792,7 @@
         <v>4</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G85" s="1">
@@ -7879,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G86" s="1">
@@ -7966,7 +7966,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G87" s="1">
@@ -8053,7 +8053,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G88" s="1">
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G89" s="1">
@@ -8227,7 +8227,7 @@
         <v>4</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G90" s="1">
@@ -8314,7 +8314,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G91" s="1">
@@ -8401,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G92" s="1">
@@ -8488,7 +8488,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G93" s="1">
@@ -8575,7 +8575,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G94" s="1">
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G95" s="1">
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="G96" s="1">
@@ -8836,7 +8836,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G97" s="1">
@@ -8923,7 +8923,7 @@
         <v>6</v>
       </c>
       <c r="F98" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G98" s="1">
@@ -9010,7 +9010,7 @@
         <v>6</v>
       </c>
       <c r="F99" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G99" s="1">
@@ -9097,7 +9097,7 @@
         <v>6</v>
       </c>
       <c r="F100" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G100" s="1">
@@ -9184,7 +9184,7 @@
         <v>6</v>
       </c>
       <c r="F101" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G101" s="1">
@@ -9271,7 +9271,7 @@
         <v>6</v>
       </c>
       <c r="F102" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G102" s="1">
@@ -9358,7 +9358,7 @@
         <v>6</v>
       </c>
       <c r="F103" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G103" s="1">
@@ -9445,7 +9445,7 @@
         <v>6</v>
       </c>
       <c r="F104" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G104" s="1">
@@ -9532,7 +9532,7 @@
         <v>6</v>
       </c>
       <c r="F105" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G105" s="1">
@@ -9619,7 +9619,7 @@
         <v>6</v>
       </c>
       <c r="F106" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G106" s="1">
@@ -9706,7 +9706,7 @@
         <v>6</v>
       </c>
       <c r="F107" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G107" s="1">
@@ -9793,7 +9793,7 @@
         <v>6</v>
       </c>
       <c r="F108" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="G108" s="1">
@@ -9880,8 +9880,8 @@
         <v>4</v>
       </c>
       <c r="F109" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G109" s="1">
         <v>100</v>
@@ -9967,8 +9967,8 @@
         <v>4</v>
       </c>
       <c r="F110" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G110" s="1">
         <v>100</v>
@@ -10054,8 +10054,8 @@
         <v>4</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G111" s="1">
         <v>100</v>
@@ -10141,8 +10141,8 @@
         <v>4</v>
       </c>
       <c r="F112" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G112" s="1">
         <v>100</v>
@@ -10228,8 +10228,8 @@
         <v>4</v>
       </c>
       <c r="F113" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G113" s="1">
         <v>100</v>
@@ -10315,8 +10315,8 @@
         <v>4</v>
       </c>
       <c r="F114" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G114" s="1">
         <v>100</v>
@@ -10402,8 +10402,8 @@
         <v>4</v>
       </c>
       <c r="F115" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G115" s="1">
         <v>100</v>
@@ -10489,8 +10489,8 @@
         <v>4</v>
       </c>
       <c r="F116" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G116" s="1">
         <v>100</v>
@@ -10576,8 +10576,8 @@
         <v>4</v>
       </c>
       <c r="F117" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G117" s="1">
         <v>100</v>
@@ -10663,8 +10663,8 @@
         <v>4</v>
       </c>
       <c r="F118" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G118" s="1">
         <v>100</v>
@@ -10750,8 +10750,8 @@
         <v>4</v>
       </c>
       <c r="F119" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G119" s="1">
         <v>100</v>
@@ -10837,8 +10837,8 @@
         <v>4</v>
       </c>
       <c r="F120" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G120" s="1">
         <v>100</v>
@@ -10924,8 +10924,8 @@
         <v>4</v>
       </c>
       <c r="F121" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G121" s="1">
         <v>100</v>
@@ -11011,8 +11011,8 @@
         <v>4</v>
       </c>
       <c r="F122" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G122" s="1">
         <v>100</v>
@@ -11098,8 +11098,8 @@
         <v>4</v>
       </c>
       <c r="F123" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G123" s="1">
         <v>100</v>
@@ -11185,8 +11185,8 @@
         <v>4</v>
       </c>
       <c r="F124" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="G124" s="1">
         <v>100</v>
